--- a/ig/main/ValueSet-fr-core-civility-exercice-rass.xlsx
+++ b/ig/main/ValueSet-fr-core-civility-exercice-rass.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T08:16:49+00:00</t>
+    <t>2023-09-19T07:10:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-fr-core-civility-exercice-rass.xlsx
+++ b/ig/main/ValueSet-fr-core-civility-exercice-rass.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-19T07:10:34+00:00</t>
+    <t>2023-09-19T08:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-fr-core-civility-exercice-rass.xlsx
+++ b/ig/main/ValueSet-fr-core-civility-exercice-rass.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-19T08:58:18+00:00</t>
+    <t>2023-09-19T09:27:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-fr-core-civility-exercice-rass.xlsx
+++ b/ig/main/ValueSet-fr-core-civility-exercice-rass.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-19T09:27:01+00:00</t>
+    <t>2023-09-19T09:28:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-fr-core-civility-exercice-rass.xlsx
+++ b/ig/main/ValueSet-fr-core-civility-exercice-rass.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-19T09:28:32+00:00</t>
+    <t>2023-09-19T09:52:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-fr-core-civility-exercice-rass.xlsx
+++ b/ig/main/ValueSet-fr-core-civility-exercice-rass.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-19T09:52:24+00:00</t>
+    <t>2023-10-09T09:16:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-fr-core-civility-exercice-rass.xlsx
+++ b/ig/main/ValueSet-fr-core-civility-exercice-rass.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T09:16:22+00:00</t>
+    <t>2023-10-16T08:03:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
